--- a/test/files/BFR5-SDP-Questionnaire-v6-jef.xlsx
+++ b/test/files/BFR5-SDP-Questionnaire-v6-jef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15560" tabRatio="402"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15560" tabRatio="402" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -6253,9 +6253,6 @@
     <t>Added ppp_form_title.</t>
   </si>
   <si>
-    <t>ppp_form_title::French</t>
-  </si>
-  <si>
     <t>BFR5-SDP-Questionnaire-v6</t>
   </si>
   <si>
@@ -6323,6 +6320,9 @@
   </si>
   <si>
     <t>A list of facilities.</t>
+  </si>
+  <si>
+    <t>ppp_form_title::Français</t>
   </si>
 </sst>
 </file>
@@ -9239,9 +9239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R33" sqref="R33"/>
+    <sheetView topLeftCell="T1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9304,7 +9304,7 @@
         <v>1930</v>
       </c>
       <c r="R1" s="67" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="S1" s="67" t="s">
         <v>1390</v>
@@ -9319,7 +9319,7 @@
         <v>1391</v>
       </c>
       <c r="W1" s="67" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="X1" s="68" t="s">
         <v>480</v>
@@ -10384,7 +10384,7 @@
         <v>508</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="U12" s="1"/>
       <c r="W12" s="1" t="s">
@@ -10413,7 +10413,7 @@
         <v>485</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="U13" s="1"/>
       <c r="W13" s="1" t="s">
@@ -10442,7 +10442,7 @@
         <v>486</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="U14" s="1"/>
       <c r="W14" s="1" t="s">
@@ -10483,7 +10483,7 @@
       <c r="P15" s="70"/>
       <c r="Q15" s="70"/>
       <c r="R15" s="70" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="S15" s="70" t="s">
         <v>905</v>
@@ -12349,7 +12349,7 @@
         <v>1931</v>
       </c>
       <c r="R32" s="70" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="S32" s="70" t="s">
         <v>525</v>
@@ -13018,7 +13018,7 @@
         <v>90</v>
       </c>
       <c r="C38" s="67" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D38" s="67" t="s">
         <v>1338</v>
@@ -27599,10 +27599,10 @@
         <v>748</v>
       </c>
       <c r="C169" s="70" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D169" s="70" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E169" s="70"/>
       <c r="F169" s="70"/>
@@ -27628,7 +27628,7 @@
       </c>
       <c r="W169" s="70"/>
       <c r="X169" s="71" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="Y169" s="71" t="s">
         <v>1473</v>
@@ -57135,7 +57135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -57166,15 +57168,15 @@
         <v>1104</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>1996</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="31" customFormat="1">
       <c r="A2" s="26" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>1997</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>1998</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>490</v>
@@ -57189,7 +57191,7 @@
         <v>1105</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
   </sheetData>
@@ -60430,10 +60432,10 @@
         <v>1094</v>
       </c>
       <c r="E143" s="44" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F143" s="24" t="s">
         <v>2000</v>
-      </c>
-      <c r="F143" s="24" t="s">
-        <v>2001</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="13" customHeight="1">
@@ -60447,13 +60449,13 @@
         <v>1190</v>
       </c>
       <c r="D144" s="24" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E144" s="44" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F144" s="24" t="s">
         <v>2007</v>
-      </c>
-      <c r="E144" s="44" t="s">
-        <v>2006</v>
-      </c>
-      <c r="F144" s="24" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="13" customHeight="1">
@@ -60470,10 +60472,10 @@
         <v>1094</v>
       </c>
       <c r="E145" s="44" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F145" s="24" t="s">
         <v>2009</v>
-      </c>
-      <c r="F145" s="24" t="s">
-        <v>2010</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="13" customHeight="1">
@@ -60490,10 +60492,10 @@
         <v>1094</v>
       </c>
       <c r="E146" s="44" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F146" s="24" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
